--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\2025_2026\IA101_26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE42451-D795-4F41-AD57-EB6B2249B995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6DC83F-3A29-4807-946F-4923DE9A7FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94F0BB87-3E48-473B-942D-98824DCDEC0A}"/>
   </bookViews>
@@ -322,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -510,21 +510,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -560,15 +545,39 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -593,38 +602,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,15 +619,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6675AFBB-6A96-4B34-A155-68C8C20E19A3}">
   <dimension ref="B1:AV2554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,69 +1031,69 @@
       <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="35" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="38" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="32" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="33" t="s">
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="35" t="s">
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="38" t="s">
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="32" t="s">
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="34" t="s">
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="35" t="s">
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="36"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="24"/>
     </row>
     <row r="4" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="15" t="s">
@@ -1218,217 +1227,217 @@
       </c>
     </row>
     <row r="5" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="34">
         <v>45901</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="35">
         <f>E5+7</f>
         <v>45908</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="35">
         <f>F5+7</f>
         <v>45915</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="35">
         <f>G5+7</f>
         <v>45922</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="36">
         <f t="shared" ref="I5:AU5" si="0">H5+7</f>
         <v>45929</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="36">
         <f t="shared" si="0"/>
         <v>45936</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="36">
         <f t="shared" si="0"/>
         <v>45943</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="36">
         <f t="shared" si="0"/>
         <v>45950</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="37">
         <f t="shared" si="0"/>
         <v>45957</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="37">
         <f t="shared" si="0"/>
         <v>45964</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="37">
         <f t="shared" si="0"/>
         <v>45971</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="37">
         <f t="shared" si="0"/>
         <v>45978</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="38">
         <f t="shared" si="0"/>
         <v>45985</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="38">
         <f t="shared" si="0"/>
         <v>45992</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="38">
         <f t="shared" si="0"/>
         <v>45999</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="38">
         <f t="shared" si="0"/>
         <v>46006</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="38">
         <f t="shared" si="0"/>
         <v>46013</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="35">
         <f t="shared" si="0"/>
         <v>46020</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="35">
         <f t="shared" si="0"/>
         <v>46027</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="35">
         <f t="shared" si="0"/>
         <v>46034</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="35">
         <f t="shared" si="0"/>
         <v>46041</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="36">
         <f t="shared" si="0"/>
         <v>46048</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="36">
         <f t="shared" si="0"/>
         <v>46055</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="36">
         <f t="shared" si="0"/>
         <v>46062</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="36">
         <f t="shared" si="0"/>
         <v>46069</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AD5" s="37">
         <f t="shared" si="0"/>
         <v>46076</v>
       </c>
-      <c r="AE5" s="20">
+      <c r="AE5" s="37">
         <f t="shared" si="0"/>
         <v>46083</v>
       </c>
-      <c r="AF5" s="20">
+      <c r="AF5" s="37">
         <f t="shared" si="0"/>
         <v>46090</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AG5" s="37">
         <f t="shared" si="0"/>
         <v>46097</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AH5" s="37">
         <f t="shared" si="0"/>
         <v>46104</v>
       </c>
-      <c r="AI5" s="21">
+      <c r="AI5" s="38">
         <f t="shared" si="0"/>
         <v>46111</v>
       </c>
-      <c r="AJ5" s="21">
+      <c r="AJ5" s="38">
         <f t="shared" si="0"/>
         <v>46118</v>
       </c>
-      <c r="AK5" s="21">
+      <c r="AK5" s="38">
         <f t="shared" si="0"/>
         <v>46125</v>
       </c>
-      <c r="AL5" s="21">
+      <c r="AL5" s="38">
         <f t="shared" si="0"/>
         <v>46132</v>
       </c>
-      <c r="AM5" s="22">
+      <c r="AM5" s="39">
         <f t="shared" si="0"/>
         <v>46139</v>
       </c>
-      <c r="AN5" s="22">
+      <c r="AN5" s="39">
         <f t="shared" si="0"/>
         <v>46146</v>
       </c>
-      <c r="AO5" s="22">
+      <c r="AO5" s="39">
         <f t="shared" si="0"/>
         <v>46153</v>
       </c>
-      <c r="AP5" s="22">
+      <c r="AP5" s="39">
         <f t="shared" si="0"/>
         <v>46160</v>
       </c>
-      <c r="AQ5" s="19">
+      <c r="AQ5" s="36">
         <f t="shared" si="0"/>
         <v>46167</v>
       </c>
-      <c r="AR5" s="19">
+      <c r="AR5" s="36">
         <f t="shared" si="0"/>
         <v>46174</v>
       </c>
-      <c r="AS5" s="19">
+      <c r="AS5" s="36">
         <f t="shared" si="0"/>
         <v>46181</v>
       </c>
-      <c r="AT5" s="19">
+      <c r="AT5" s="36">
         <f t="shared" si="0"/>
         <v>46188</v>
       </c>
-      <c r="AU5" s="23">
+      <c r="AU5" s="40">
         <f t="shared" si="0"/>
         <v>46195</v>
       </c>
       <c r="AV5" s="1"/>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="K6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
@@ -1457,14 +1466,14 @@
       <c r="AU6" s="11"/>
     </row>
     <row r="7" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="31"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1475,36 +1484,36 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41" t="s">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="41" t="s">
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41" t="s">
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AF7" s="41" t="s">
+      <c r="AK7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="13"/>
@@ -1523,7 +1532,7 @@
       <c r="AN8"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="20" t="s">
         <v>63</v>
       </c>
       <c r="S9"/>
@@ -4113,6 +4122,8 @@
     <row r="2554" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:L3"/>
@@ -4122,8 +4133,6 @@
     <mergeCell ref="AI3:AL3"/>
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="AM3:AP3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
